--- a/Images/animation.xlsx
+++ b/Images/animation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BigDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BigDoc\HArray\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F391675C-D4F1-41C4-BF5F-EABC1795EB54}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7ACD124-4ABF-4169-906E-AD61D932FC0F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="11934" firstSheet="2" activeTab="15" xr2:uid="{A588382A-7C29-4B65-94CB-80F5F0D0587C}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="14">
   <si>
     <t>Key</t>
   </si>
@@ -12502,7 +12502,7 @@
   <dimension ref="A1:AY21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH17" sqref="AH17"/>
+      <selection activeCell="BC17" sqref="BC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12712,7 +12712,7 @@
       <c r="Z7" s="13">
         <v>6</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AA7" s="13" t="s">
         <v>6</v>
       </c>
       <c r="AB7" s="3">
